--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_test.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_test.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL378661</t>
+          <t>CHEMBL207605</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>447.5</v>
+        <v>448.48</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>99.53</v>
+        <v>107.73</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76CD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFBC0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL425418</t>
+          <t>CHEMBL207131</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,35 +624,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>491.55</v>
+        <v>420.43</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>115.66</v>
+        <v>107.73</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFED0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL207961</t>
+          <t>CHEMBL204686</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>504.59</v>
+        <v>518.62</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76C4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC890&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL204686</t>
+          <t>CHEMBL380312</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>518.62</v>
+        <v>473.49</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>102.77</v>
+        <v>136.21</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFCA0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL380515</t>
+          <t>CHEMBL206927</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>433.47</v>
+        <v>492.49</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>99.53</v>
+        <v>138.72</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC190&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL207834</t>
+          <t>CHEMBL207232</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>476.54</v>
+        <v>505.53</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>125.55</v>
+        <v>125.83</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7997E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC970&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL207499</t>
+          <t>CHEMBL207084</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>503.6</v>
+        <v>462.51</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>99.53</v>
+        <v>125.55</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD4D0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL207444</t>
+          <t>CHEMBL207499</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCNC(C)=O)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCNC(C)=O)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>504.55</v>
+        <v>503.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>128.63</v>
+        <v>99.53</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7983C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD5B0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL207126</t>
+          <t>CHEMBL207444</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCNC(C)=O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCNC(C)=O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>461.52</v>
+        <v>504.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>99.53</v>
+        <v>128.63</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB7D0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBB50&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76BCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9230&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BDBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9FC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB370&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EBA00&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EBD80&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BDD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA340&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BF300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB290&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8820&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BDB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8EB0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E91C0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8A50&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAD50&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8BA0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BDF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA500&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
